--- a/store_data_hackathon.xlsx
+++ b/store_data_hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23A5AB-775B-4818-A48E-0543542DC4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8E1C8-E483-4FA7-AC2D-E93AA33AE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8DA9E44-D509-4087-B9F2-3CA53A2CF59E}"/>
   </bookViews>
@@ -692,9 +692,6 @@
     <t>Airbus</t>
   </si>
   <si>
-    <t>airbnb            | 2      |                  | 8,800                    | 98,000              | 17,600           | 5.57</t>
-  </si>
-  <si>
     <t>american airlines</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>airbnb</t>
   </si>
 </sst>
 </file>
@@ -1100,28 +1100,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0E3661-B37E-479C-92D4-D80D37C47D33}">
   <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>226</v>
-      </c>
-      <c r="D1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,9 +1205,7 @@
       <c r="C7" s="2">
         <v>28000</v>
       </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1218,9 +1217,7 @@
       <c r="C8" s="2">
         <v>37790</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1260,9 +1257,7 @@
       <c r="C11" s="2">
         <v>48670</v>
       </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1428,9 +1423,7 @@
       <c r="C23" s="2">
         <v>8372</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1526,9 +1519,7 @@
       <c r="C30" s="2">
         <v>20770</v>
       </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1554,9 +1545,7 @@
       <c r="C32" s="2">
         <v>54800</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1610,9 +1599,7 @@
       <c r="C36" s="2">
         <v>82510</v>
       </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1652,9 +1639,7 @@
       <c r="C39" s="2">
         <v>42940</v>
       </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1694,9 +1679,7 @@
       <c r="C42" s="2">
         <v>166370</v>
       </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1960,9 +1943,7 @@
       <c r="C61" s="4">
         <v>299</v>
       </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2142,9 +2123,7 @@
       <c r="C74" s="2">
         <v>69530</v>
       </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2296,9 +2275,7 @@
       <c r="C85" s="2">
         <v>64400</v>
       </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2422,9 +2399,7 @@
       <c r="C94" s="4">
         <v>101</v>
       </c>
-      <c r="D94" s="4">
-        <v>4</v>
-      </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -2436,9 +2411,7 @@
       <c r="C95" s="4">
         <v>-406</v>
       </c>
-      <c r="D95" s="4">
-        <v>-1</v>
-      </c>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -2562,9 +2535,7 @@
       <c r="C104" s="2">
         <v>95640</v>
       </c>
-      <c r="D104" s="4">
-        <v>0</v>
-      </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -2576,9 +2547,7 @@
       <c r="C105" s="4">
         <v>659</v>
       </c>
-      <c r="D105" s="4">
-        <v>6</v>
-      </c>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -2996,9 +2965,7 @@
       <c r="C135" s="2">
         <v>12679</v>
       </c>
-      <c r="D135" s="4">
-        <v>5</v>
-      </c>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -3220,9 +3187,7 @@
       <c r="C151" s="2">
         <v>7615</v>
       </c>
-      <c r="D151" s="4">
-        <v>1</v>
-      </c>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3290,9 +3255,7 @@
       <c r="C156" s="2">
         <v>16110</v>
       </c>
-      <c r="D156" s="4">
-        <v>5</v>
-      </c>
+      <c r="D156" s="4"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -3304,9 +3267,7 @@
       <c r="C157" s="2">
         <v>32600</v>
       </c>
-      <c r="D157" s="4">
-        <v>4</v>
-      </c>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -3318,9 +3279,7 @@
       <c r="C158" s="2">
         <v>67300</v>
       </c>
-      <c r="D158" s="4">
-        <v>5</v>
-      </c>
+      <c r="D158" s="4"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -3332,9 +3291,7 @@
       <c r="C159" s="2">
         <v>1173</v>
       </c>
-      <c r="D159" s="4">
-        <v>3</v>
-      </c>
+      <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -3444,9 +3401,7 @@
       <c r="C167" s="4">
         <v>90</v>
       </c>
-      <c r="D167" s="4">
-        <v>3</v>
-      </c>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -3486,9 +3441,7 @@
       <c r="C170" s="4">
         <v>23</v>
       </c>
-      <c r="D170" s="4">
-        <v>5</v>
-      </c>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -3528,9 +3481,7 @@
       <c r="C173" s="2">
         <v>91210</v>
       </c>
-      <c r="D173" s="4">
-        <v>0</v>
-      </c>
+      <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -3584,9 +3535,7 @@
       <c r="C177" s="2">
         <v>94470</v>
       </c>
-      <c r="D177" s="4">
-        <v>0</v>
-      </c>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -3654,9 +3603,7 @@
       <c r="C182" s="2">
         <v>53980</v>
       </c>
-      <c r="D182" s="4">
-        <v>2</v>
-      </c>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -3738,9 +3685,7 @@
       <c r="C188" s="2">
         <v>59000</v>
       </c>
-      <c r="D188" s="4">
-        <v>1</v>
-      </c>
+      <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -3752,9 +3697,7 @@
       <c r="C189" s="4">
         <v>324</v>
       </c>
-      <c r="D189" s="4">
-        <v>2</v>
-      </c>
+      <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -3962,9 +3905,7 @@
       <c r="C204" s="2">
         <v>59290</v>
       </c>
-      <c r="D204" s="4">
-        <v>2</v>
-      </c>
+      <c r="D204" s="4"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
@@ -4074,9 +4015,7 @@
       <c r="C212" s="2">
         <v>44800</v>
       </c>
-      <c r="D212" s="4">
-        <v>2</v>
-      </c>
+      <c r="D212" s="4"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -4088,9 +4027,7 @@
       <c r="C213" s="2">
         <v>98770</v>
       </c>
-      <c r="D213" s="4">
-        <v>1</v>
-      </c>
+      <c r="D213" s="4"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -4164,7 +4101,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B219" s="3">
         <v>49000</v>
@@ -4178,7 +4115,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>42400000</v>
@@ -4192,7 +4129,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>27320</v>
@@ -4206,7 +4143,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>85000</v>
@@ -4220,7 +4157,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>23110307</v>
@@ -4229,12 +4166,12 @@
         <v>10700</v>
       </c>
       <c r="D223" s="3">
-        <v>2159.84</v>
+        <v>800</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>24000</v>
@@ -4242,13 +4179,11 @@
       <c r="C224" s="3">
         <v>13000</v>
       </c>
-      <c r="D224" s="3">
-        <v>1.85</v>
-      </c>
+      <c r="D224" s="3"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>125000</v>
@@ -4257,7 +4192,7 @@
         <v>31000</v>
       </c>
       <c r="D225" s="3">
-        <v>4.03</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
